--- a/高分解答.xlsx
+++ b/高分解答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenario 1" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,6 @@
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1779,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -2757,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -3730,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -4184,8 +4183,8 @@
         <v>14564</v>
       </c>
       <c r="N18">
-        <f>M18-K12-K22-K28</f>
-        <v>7300</v>
+        <f>M18-K12-K22-K28-1500</f>
+        <v>5800</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
